--- a/功能/GongNeng.xlsx
+++ b/功能/GongNeng.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="752">
   <si>
     <t>支持的数据类型</t>
   </si>
@@ -2350,6 +2350,48 @@
   </si>
   <si>
     <t>寻宝宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlashSale</t>
+  </si>
+  <si>
+    <t>限时团购</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welfare</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面福利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TuzhiCompose</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸合成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TuzhiSelect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸选择</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CangBaoGeRewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏宝阁奖励预览</t>
+  </si>
+  <si>
+    <t>藏宝阁奖励预览</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3015,11 +3057,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V308"/>
+  <dimension ref="A1:V313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T308" sqref="T308"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G325" sqref="G325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -16007,6 +16049,216 @@
       </c>
       <c r="U308" s="36"/>
       <c r="V308" s="14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="309" spans="2:22" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B309" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="C309" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="D309" s="20">
+        <v>1</v>
+      </c>
+      <c r="E309" s="20">
+        <v>1</v>
+      </c>
+      <c r="F309" s="20"/>
+      <c r="G309" s="20"/>
+      <c r="H309" s="21">
+        <v>1</v>
+      </c>
+      <c r="I309" s="21">
+        <v>1</v>
+      </c>
+      <c r="J309" s="21"/>
+      <c r="K309" s="21"/>
+      <c r="L309" s="28"/>
+      <c r="M309" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="O309" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="P309" s="23"/>
+      <c r="Q309" s="23"/>
+      <c r="R309" s="23"/>
+      <c r="S309" s="23"/>
+      <c r="T309" s="23">
+        <v>8700</v>
+      </c>
+      <c r="U309" s="36"/>
+      <c r="V309" s="14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="310" spans="2:22" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B310" s="17" t="s">
+        <v>743</v>
+      </c>
+      <c r="C310" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="D310" s="20">
+        <v>1</v>
+      </c>
+      <c r="E310" s="20">
+        <v>1</v>
+      </c>
+      <c r="F310" s="20"/>
+      <c r="G310" s="20"/>
+      <c r="H310" s="21">
+        <v>1</v>
+      </c>
+      <c r="I310" s="21">
+        <v>1</v>
+      </c>
+      <c r="J310" s="21"/>
+      <c r="K310" s="21"/>
+      <c r="L310" s="28"/>
+      <c r="M310" s="17" t="s">
+        <v>743</v>
+      </c>
+      <c r="O310" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="P310" s="23"/>
+      <c r="Q310" s="23"/>
+      <c r="R310" s="23"/>
+      <c r="S310" s="23"/>
+      <c r="T310" s="23">
+        <v>8700</v>
+      </c>
+      <c r="U310" s="36"/>
+      <c r="V310" s="14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="311" spans="2:22" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B311" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="C311" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="D311" s="20">
+        <v>1</v>
+      </c>
+      <c r="E311" s="20">
+        <v>1</v>
+      </c>
+      <c r="F311" s="20"/>
+      <c r="G311" s="20"/>
+      <c r="H311" s="21">
+        <v>1</v>
+      </c>
+      <c r="I311" s="21">
+        <v>1</v>
+      </c>
+      <c r="J311" s="21"/>
+      <c r="K311" s="21"/>
+      <c r="L311" s="28"/>
+      <c r="M311" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="O311" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="P311" s="23"/>
+      <c r="Q311" s="23"/>
+      <c r="R311" s="23"/>
+      <c r="S311" s="23"/>
+      <c r="T311" s="23">
+        <v>8900</v>
+      </c>
+      <c r="U311" s="36"/>
+      <c r="V311" s="14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="312" spans="2:22" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B312" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="C312" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="D312" s="20">
+        <v>1</v>
+      </c>
+      <c r="E312" s="20">
+        <v>1</v>
+      </c>
+      <c r="F312" s="20"/>
+      <c r="G312" s="20"/>
+      <c r="H312" s="21">
+        <v>1</v>
+      </c>
+      <c r="I312" s="21">
+        <v>1</v>
+      </c>
+      <c r="J312" s="21"/>
+      <c r="K312" s="21"/>
+      <c r="L312" s="28"/>
+      <c r="M312" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="O312" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="P312" s="23"/>
+      <c r="Q312" s="23"/>
+      <c r="R312" s="23"/>
+      <c r="S312" s="23"/>
+      <c r="T312" s="23">
+        <v>8900</v>
+      </c>
+      <c r="U312" s="36"/>
+      <c r="V312" s="14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="313" spans="2:22" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B313" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="C313" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="D313" s="20">
+        <v>1</v>
+      </c>
+      <c r="E313" s="20">
+        <v>1</v>
+      </c>
+      <c r="F313" s="20"/>
+      <c r="G313" s="20"/>
+      <c r="H313" s="21">
+        <v>1</v>
+      </c>
+      <c r="I313" s="21">
+        <v>1</v>
+      </c>
+      <c r="J313" s="21"/>
+      <c r="K313" s="21"/>
+      <c r="L313" s="28"/>
+      <c r="M313" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="O313" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="P313" s="23"/>
+      <c r="Q313" s="23"/>
+      <c r="R313" s="23"/>
+      <c r="S313" s="23"/>
+      <c r="T313" s="23">
+        <v>8900</v>
+      </c>
+      <c r="U313" s="36"/>
+      <c r="V313" s="14">
         <v>0.8</v>
       </c>
     </row>

--- a/功能/GongNeng.xlsx
+++ b/功能/GongNeng.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="761">
   <si>
     <t>支持的数据类型</t>
   </si>
@@ -2432,7 +2432,39 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>ServerSelect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notice</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfirmAgree</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateRole</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subtitles</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>huaqiangu/gateway</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>/game/gateway</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3134,9 +3166,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V313"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S4" sqref="S4"/>
+      <selection pane="topRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -3228,10 +3260,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>758</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>750</v>
@@ -3573,159 +3605,339 @@
         <v>73</v>
       </c>
       <c r="V10" s="10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="13.5">
-      <c r="B11" s="13"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="31.5">
+      <c r="B11" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="H11" s="17">
+        <v>1</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1</v>
+      </c>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="21"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="19"/>
+      <c r="M11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="19">
+        <v>0</v>
+      </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-    </row>
-    <row r="12" spans="1:22" ht="13.5">
-      <c r="B12" s="13"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="T11" s="19">
+        <v>8700</v>
+      </c>
+      <c r="U11" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="V11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="31.5">
+      <c r="B12" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1</v>
+      </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="H12" s="17">
+        <v>1</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1</v>
+      </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="21"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="19"/>
+      <c r="M12" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="19">
+        <v>0</v>
+      </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="32"/>
-    </row>
-    <row r="13" spans="1:22" ht="13.5">
-      <c r="B13" s="13"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="T12" s="19">
+        <v>8700</v>
+      </c>
+      <c r="U12" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="V12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="31.5">
+      <c r="B13" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1</v>
+      </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="H13" s="17">
+        <v>1</v>
+      </c>
+      <c r="I13" s="17">
+        <v>1</v>
+      </c>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="21"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="19"/>
+      <c r="M13" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" s="19">
+        <v>0</v>
+      </c>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
       <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-    </row>
-    <row r="14" spans="1:22" ht="13.5">
-      <c r="B14" s="13"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="T13" s="19">
+        <v>8700</v>
+      </c>
+      <c r="U13" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="V13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="31.5">
+      <c r="B14" s="19" t="s">
+        <v>755</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="H14" s="17">
+        <v>1</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="19"/>
+      <c r="M14" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" s="19">
+        <v>0</v>
+      </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-    </row>
-    <row r="15" spans="1:22" ht="13.5">
-      <c r="B15" s="13"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="T14" s="19">
+        <v>8700</v>
+      </c>
+      <c r="U14" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="V14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="31.5">
+      <c r="B15" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="H15" s="17">
+        <v>1</v>
+      </c>
+      <c r="I15" s="17">
+        <v>1</v>
+      </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="21"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="19"/>
+      <c r="M15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15" s="19">
+        <v>0</v>
+      </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-    </row>
-    <row r="16" spans="1:22" ht="13.5">
-      <c r="B16" s="13"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="T15" s="19">
+        <v>8700</v>
+      </c>
+      <c r="U15" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="V15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="31.5">
+      <c r="B16" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1</v>
+      </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="H16" s="17">
+        <v>1</v>
+      </c>
+      <c r="I16" s="17">
+        <v>1</v>
+      </c>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="21"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="19"/>
+      <c r="M16" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" s="19">
+        <v>0</v>
+      </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
       <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-    </row>
-    <row r="17" spans="2:21" ht="13.5">
-      <c r="B17" s="13"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="T16" s="19">
+        <v>8700</v>
+      </c>
+      <c r="U16" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="V16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="31.5">
+      <c r="B17" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1</v>
+      </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="H17" s="17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="17">
+        <v>1</v>
+      </c>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="21"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="19"/>
+      <c r="M17" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="19">
+        <v>0</v>
+      </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
       <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="32"/>
-    </row>
-    <row r="18" spans="2:21" ht="13.5">
+      <c r="T17" s="19">
+        <v>8700</v>
+      </c>
+      <c r="U17" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="V17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" ht="13.5">
       <c r="B18" s="13"/>
       <c r="C18" s="19"/>
       <c r="D18" s="16"/>
@@ -3746,7 +3958,7 @@
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
     </row>
-    <row r="19" spans="2:21" ht="13.5">
+    <row r="19" spans="2:22" ht="13.5">
       <c r="B19" s="13"/>
       <c r="C19" s="19"/>
       <c r="D19" s="16"/>
@@ -3768,7 +3980,7 @@
       <c r="T19" s="19"/>
       <c r="U19" s="32"/>
     </row>
-    <row r="20" spans="2:21" ht="13.5">
+    <row r="20" spans="2:22" ht="13.5">
       <c r="B20" s="13"/>
       <c r="C20" s="19"/>
       <c r="D20" s="16"/>
@@ -3790,7 +4002,7 @@
       <c r="T20" s="19"/>
       <c r="U20" s="32"/>
     </row>
-    <row r="21" spans="2:21" ht="13.5">
+    <row r="21" spans="2:22" ht="13.5">
       <c r="B21" s="13"/>
       <c r="C21" s="19"/>
       <c r="D21" s="16"/>
@@ -3812,7 +4024,7 @@
       <c r="T21" s="19"/>
       <c r="U21" s="32"/>
     </row>
-    <row r="22" spans="2:21" ht="13.5">
+    <row r="22" spans="2:22" ht="13.5">
       <c r="B22" s="13"/>
       <c r="C22" s="19"/>
       <c r="D22" s="16"/>
@@ -3833,7 +4045,7 @@
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
     </row>
-    <row r="23" spans="2:21" ht="13.5">
+    <row r="23" spans="2:22" ht="13.5">
       <c r="B23" s="13"/>
       <c r="C23" s="19"/>
       <c r="D23" s="16"/>
@@ -3854,7 +4066,7 @@
       <c r="S23" s="19"/>
       <c r="T23" s="19"/>
     </row>
-    <row r="24" spans="2:21" ht="13.5">
+    <row r="24" spans="2:22" ht="13.5">
       <c r="B24" s="13"/>
       <c r="C24" s="19"/>
       <c r="D24" s="16"/>
@@ -3875,7 +4087,7 @@
       <c r="S24" s="19"/>
       <c r="T24" s="19"/>
     </row>
-    <row r="25" spans="2:21" ht="13.5">
+    <row r="25" spans="2:22" ht="13.5">
       <c r="B25" s="13"/>
       <c r="C25" s="19"/>
       <c r="D25" s="16"/>
@@ -3896,7 +4108,7 @@
       <c r="S25" s="19"/>
       <c r="T25" s="19"/>
     </row>
-    <row r="26" spans="2:21" ht="13.5">
+    <row r="26" spans="2:22" ht="13.5">
       <c r="B26" s="13"/>
       <c r="C26" s="19"/>
       <c r="D26" s="16"/>
@@ -3917,7 +4129,7 @@
       <c r="S26" s="19"/>
       <c r="T26" s="19"/>
     </row>
-    <row r="27" spans="2:21" ht="13.5">
+    <row r="27" spans="2:22" ht="13.5">
       <c r="B27" s="13"/>
       <c r="C27" s="19"/>
       <c r="D27" s="16"/>
@@ -3938,7 +4150,7 @@
       <c r="S27" s="19"/>
       <c r="T27" s="19"/>
     </row>
-    <row r="28" spans="2:21" ht="13.5">
+    <row r="28" spans="2:22" ht="13.5">
       <c r="B28" s="13"/>
       <c r="C28" s="19"/>
       <c r="D28" s="16"/>
@@ -3959,7 +4171,7 @@
       <c r="S28" s="19"/>
       <c r="T28" s="19"/>
     </row>
-    <row r="29" spans="2:21" ht="13.5">
+    <row r="29" spans="2:22" ht="13.5">
       <c r="B29" s="13"/>
       <c r="C29" s="19"/>
       <c r="D29" s="16"/>
@@ -3980,7 +4192,7 @@
       <c r="S29" s="19"/>
       <c r="T29" s="19"/>
     </row>
-    <row r="30" spans="2:21" ht="13.5">
+    <row r="30" spans="2:22" ht="13.5">
       <c r="B30" s="13"/>
       <c r="C30" s="19"/>
       <c r="D30" s="16"/>
@@ -4001,7 +4213,7 @@
       <c r="S30" s="19"/>
       <c r="T30" s="19"/>
     </row>
-    <row r="31" spans="2:21" ht="13.5">
+    <row r="31" spans="2:22" ht="13.5">
       <c r="B31" s="13"/>
       <c r="C31" s="19"/>
       <c r="D31" s="16"/>
@@ -4022,7 +4234,7 @@
       <c r="S31" s="19"/>
       <c r="T31" s="19"/>
     </row>
-    <row r="32" spans="2:21" ht="13.5">
+    <row r="32" spans="2:22" ht="13.5">
       <c r="B32" s="13"/>
       <c r="C32" s="19"/>
       <c r="D32" s="16"/>
